--- a/graphs+excel_directory/generated_spreadsheet.xlsx
+++ b/graphs+excel_directory/generated_spreadsheet.xlsx
@@ -1427,7 +1427,7 @@
         <v>8000</v>
       </c>
       <c r="C3">
-        <v>21238.33333333333</v>
+        <v>20675</v>
       </c>
       <c r="D3">
         <v>22083.33333333333</v>
@@ -1462,28 +1462,28 @@
         <v>13000</v>
       </c>
       <c r="C4">
-        <v>20744.03333333333</v>
+        <v>19907.5</v>
       </c>
       <c r="D4">
-        <v>21238.33333333333</v>
+        <v>20675</v>
       </c>
       <c r="E4">
-        <v>8238.333333333332</v>
+        <v>7675</v>
       </c>
       <c r="F4">
-        <v>8238.333333333332</v>
+        <v>7675</v>
       </c>
       <c r="G4">
-        <v>133105206.9444444</v>
+        <v>128622951.3888889</v>
       </c>
       <c r="H4">
-        <v>11160.83333333333</v>
+        <v>10879.16666666667</v>
       </c>
       <c r="I4">
-        <v>63.37179487179486</v>
+        <v>59.03846153846154</v>
       </c>
       <c r="J4">
-        <v>119.7067307692308</v>
+        <v>117.5400641025641</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1497,31 +1497,31 @@
         <v>23000</v>
       </c>
       <c r="C5">
-        <v>20879.39133333333</v>
+        <v>20216.75</v>
       </c>
       <c r="D5">
-        <v>20744.03333333333</v>
+        <v>19907.5</v>
       </c>
       <c r="E5">
-        <v>-2255.966666666667</v>
+        <v>-3092.5</v>
       </c>
       <c r="F5">
-        <v>2255.966666666667</v>
+        <v>3092.5</v>
       </c>
       <c r="G5">
-        <v>90433266.49666665</v>
+        <v>88936486.34259258</v>
       </c>
       <c r="H5">
-        <v>8192.544444444444</v>
+        <v>8283.611111111111</v>
       </c>
       <c r="I5">
-        <v>9.808550724637684</v>
+        <v>13.44565217391304</v>
       </c>
       <c r="J5">
-        <v>83.07400408769973</v>
+        <v>82.84192679301374</v>
       </c>
       <c r="K5">
-        <v>2.449263490246552</v>
+        <v>2.253344958250897</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1532,31 +1532,31 @@
         <v>34000</v>
       </c>
       <c r="C6">
-        <v>21666.62785333333</v>
+        <v>21595.075</v>
       </c>
       <c r="D6">
-        <v>20879.39133333333</v>
+        <v>20216.75</v>
       </c>
       <c r="E6">
-        <v>-13120.60866666667</v>
+        <v>-13783.25</v>
       </c>
       <c r="F6">
-        <v>13120.60866666667</v>
+        <v>13783.25</v>
       </c>
       <c r="G6">
-        <v>110862542.8184521</v>
+        <v>114196859.8975694</v>
       </c>
       <c r="H6">
-        <v>9424.5605</v>
+        <v>9658.520833333332</v>
       </c>
       <c r="I6">
-        <v>38.59002549019608</v>
+        <v>40.53897058823529</v>
       </c>
       <c r="J6">
-        <v>71.95300943832382</v>
+        <v>72.26618774181914</v>
       </c>
       <c r="K6">
-        <v>0.7369140803259028</v>
+        <v>0.5055208160324756</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1567,31 +1567,31 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>20966.63018213333</v>
+        <v>20435.5675</v>
       </c>
       <c r="D7">
-        <v>21666.62785333333</v>
+        <v>21595.075</v>
       </c>
       <c r="E7">
-        <v>11666.62785333333</v>
+        <v>11595.075</v>
       </c>
       <c r="F7">
-        <v>11666.62785333333</v>
+        <v>11595.075</v>
       </c>
       <c r="G7">
-        <v>115912075.3483963</v>
+        <v>118246640.7691805</v>
       </c>
       <c r="H7">
-        <v>9872.973970666666</v>
+        <v>10045.83166666667</v>
       </c>
       <c r="I7">
-        <v>116.6662785333333</v>
+        <v>115.95075</v>
       </c>
       <c r="J7">
-        <v>80.89566325732571</v>
+        <v>81.00310019345531</v>
       </c>
       <c r="K7">
-        <v>1.885117821840051</v>
+        <v>1.640248301990594</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1602,31 +1602,31 @@
         <v>18000</v>
       </c>
       <c r="C8">
-        <v>20788.63237120533</v>
+        <v>20192.01075</v>
       </c>
       <c r="D8">
-        <v>20966.63018213333</v>
+        <v>20435.5675</v>
       </c>
       <c r="E8">
-        <v>2966.630182133329</v>
+        <v>2435.567500000001</v>
       </c>
       <c r="F8">
-        <v>2966.630182133329</v>
+        <v>2435.567500000001</v>
       </c>
       <c r="G8">
-        <v>98060211.89658765</v>
+        <v>99527532.14882648</v>
       </c>
       <c r="H8">
-        <v>8721.916672577776</v>
+        <v>8777.454305555555</v>
       </c>
       <c r="I8">
-        <v>16.48127878962961</v>
+        <v>13.53093055555556</v>
       </c>
       <c r="J8">
-        <v>70.15993251270969</v>
+        <v>69.75773858713869</v>
       </c>
       <c r="K8">
-        <v>2.474037551475767</v>
+        <v>2.154750702759284</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1637,31 +1637,31 @@
         <v>23000</v>
       </c>
       <c r="C9">
-        <v>20921.314428933</v>
+        <v>20472.809675</v>
       </c>
       <c r="D9">
-        <v>20788.63237120533</v>
+        <v>20192.01075</v>
       </c>
       <c r="E9">
-        <v>-2211.367628794673</v>
+        <v>-2807.989249999999</v>
       </c>
       <c r="F9">
-        <v>2211.367628794673</v>
+        <v>2807.989249999999</v>
       </c>
       <c r="G9">
-        <v>84750202.59560098</v>
+        <v>86435713.78872491</v>
       </c>
       <c r="H9">
-        <v>7791.838237751618</v>
+        <v>7924.673583333332</v>
       </c>
       <c r="I9">
-        <v>9.614641864324664</v>
+        <v>12.20864891304347</v>
       </c>
       <c r="J9">
-        <v>61.51060527722611</v>
+        <v>61.53644006226795</v>
       </c>
       <c r="K9">
-        <v>2.485547203248123</v>
+        <v>2.032290215360395</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1672,31 +1672,31 @@
         <v>38000</v>
       </c>
       <c r="C10">
-        <v>21946.03556319702</v>
+        <v>22225.5287075</v>
       </c>
       <c r="D10">
-        <v>20921.314428933</v>
+        <v>20472.809675</v>
       </c>
       <c r="E10">
-        <v>-17078.685571067</v>
+        <v>-17527.190325</v>
       </c>
       <c r="F10">
-        <v>17078.685571067</v>
+        <v>17527.190325</v>
       </c>
       <c r="G10">
-        <v>110616614.8755724</v>
+        <v>114031549.651231</v>
       </c>
       <c r="H10">
-        <v>8952.69415441604</v>
+        <v>9124.988176041667</v>
       </c>
       <c r="I10">
-        <v>44.94390939754472</v>
+        <v>46.12418506578948</v>
       </c>
       <c r="J10">
-        <v>59.43976829226595</v>
+        <v>59.60990818770814</v>
       </c>
       <c r="K10">
-        <v>0.2555986085830475</v>
+        <v>-0.1558307489537476</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1707,31 +1707,31 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>21349.2734294052</v>
+        <v>21202.97583675</v>
       </c>
       <c r="D11">
-        <v>21946.03556319702</v>
+        <v>22225.5287075</v>
       </c>
       <c r="E11">
-        <v>9946.035563197023</v>
+        <v>10225.5287075</v>
       </c>
       <c r="F11">
-        <v>9946.035563197023</v>
+        <v>10225.5287075</v>
       </c>
       <c r="G11">
-        <v>109317393.6032176</v>
+        <v>112979314.9508616</v>
       </c>
       <c r="H11">
-        <v>9063.065422058371</v>
+        <v>9247.270457314815</v>
       </c>
       <c r="I11">
-        <v>82.88362969330852</v>
+        <v>85.21273922916667</v>
       </c>
       <c r="J11">
-        <v>62.04464178127067</v>
+        <v>62.45466719231464</v>
       </c>
       <c r="K11">
-        <v>1.349911002778211</v>
+        <v>0.9520187612626271</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1742,31 +1742,31 @@
         <v>13000</v>
       </c>
       <c r="C12">
-        <v>20848.31702364089</v>
+        <v>20382.678253075</v>
       </c>
       <c r="D12">
-        <v>21349.2734294052</v>
+        <v>21202.97583675</v>
       </c>
       <c r="E12">
-        <v>8349.273429405202</v>
+        <v>8202.975836750004</v>
       </c>
       <c r="F12">
-        <v>8349.273429405202</v>
+        <v>8202.975836750004</v>
       </c>
       <c r="G12">
-        <v>105356690.9227931</v>
+        <v>108410264.7136059</v>
       </c>
       <c r="H12">
-        <v>8991.686222793054</v>
+        <v>9142.840995258335</v>
       </c>
       <c r="I12">
-        <v>64.22518022619387</v>
+        <v>63.09981412884618</v>
       </c>
       <c r="J12">
-        <v>62.26269562576299</v>
+        <v>62.5191818859678</v>
       </c>
       <c r="K12">
-        <v>2.289181878851945</v>
+        <v>1.860094779227079</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1777,31 +1777,31 @@
         <v>32000</v>
       </c>
       <c r="C13">
-        <v>21517.41800222243</v>
+        <v>21544.4104277675</v>
       </c>
       <c r="D13">
-        <v>20848.31702364089</v>
+        <v>20382.678253075</v>
       </c>
       <c r="E13">
-        <v>-11151.68297635911</v>
+        <v>-11617.321746925</v>
       </c>
       <c r="F13">
-        <v>11151.68297635911</v>
+        <v>11617.321746925</v>
       </c>
       <c r="G13">
-        <v>107084267.4939226</v>
+        <v>110824073.7916033</v>
       </c>
       <c r="H13">
-        <v>9188.049564026333</v>
+        <v>9367.793790864394</v>
       </c>
       <c r="I13">
-        <v>34.84900930112222</v>
+        <v>36.30413045914062</v>
       </c>
       <c r="J13">
-        <v>59.77054232352292</v>
+        <v>60.13599539261987</v>
       </c>
       <c r="K13">
-        <v>1.026542371093636</v>
+        <v>0.5752933055501281</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1812,51 +1812,51 @@
         <v>41000</v>
       </c>
       <c r="C14">
-        <v>22686.37292208909</v>
+        <v>23489.96938499075</v>
       </c>
       <c r="D14">
-        <v>21517.41800222243</v>
+        <v>21544.4104277675</v>
       </c>
       <c r="E14">
-        <v>-19482.58199777757</v>
+        <v>-19455.5895722325</v>
       </c>
       <c r="F14">
-        <v>19482.58199777757</v>
+        <v>19455.5895722325</v>
       </c>
       <c r="G14">
-        <v>129791495.3111062</v>
+        <v>133132064.7758998</v>
       </c>
       <c r="H14">
-        <v>10045.92726683893</v>
+        <v>10208.44343931174</v>
       </c>
       <c r="I14">
-        <v>47.51849267750627</v>
+        <v>47.45265749324999</v>
       </c>
       <c r="J14">
-        <v>58.74953818635487</v>
+        <v>59.07905056767238</v>
       </c>
       <c r="K14">
-        <v>-1.000471090983589</v>
+        <v>-1.377914331425489</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="D15">
-        <v>22686.37292208909</v>
+        <v>23489.96938499075</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16">
-        <v>22686.37292208909</v>
+        <v>23489.96938499075</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17">
-        <v>22686.37292208909</v>
+        <v>23489.96938499075</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18">
-        <v>22686.37292208909</v>
+        <v>23489.96938499075</v>
       </c>
     </row>
   </sheetData>
@@ -1929,10 +1929,10 @@
         <v>8000</v>
       </c>
       <c r="C3">
-        <v>13230.25641025641</v>
+        <v>13007.69230769231</v>
       </c>
       <c r="D3">
-        <v>1528.920279720279</v>
+        <v>1437.668997668998</v>
       </c>
       <c r="E3">
         <v>13564.10256410256</v>
@@ -1967,31 +1967,31 @@
         <v>13000</v>
       </c>
       <c r="C4">
-        <v>14653.62608857809</v>
+        <v>14300.82517482518</v>
       </c>
       <c r="D4">
-        <v>1522.587243636363</v>
+        <v>1408.761771561772</v>
       </c>
       <c r="E4">
-        <v>14759.17668997669</v>
+        <v>14445.3613053613</v>
       </c>
       <c r="F4">
-        <v>1759.176689976688</v>
+        <v>1445.361305361304</v>
       </c>
       <c r="G4">
-        <v>1759.176689976688</v>
+        <v>1445.361305361304</v>
       </c>
       <c r="H4">
-        <v>17026969.98520502</v>
+        <v>16524153.32344422</v>
       </c>
       <c r="I4">
-        <v>3661.639627039625</v>
+        <v>3504.731934731934</v>
       </c>
       <c r="J4">
-        <v>13.53212838443606</v>
+        <v>11.11816388739465</v>
       </c>
       <c r="K4">
-        <v>41.54170521785905</v>
+        <v>40.33472296933834</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -2005,34 +2005,34 @@
         <v>23000</v>
       </c>
       <c r="C5">
-        <v>16585.64053228158</v>
+        <v>16438.62825174825</v>
       </c>
       <c r="D5">
-        <v>1547.152875640391</v>
+        <v>1554.570032634033</v>
       </c>
       <c r="E5">
-        <v>16176.21333221445</v>
+        <v>15709.58694638695</v>
       </c>
       <c r="F5">
-        <v>-6823.786667785549</v>
+        <v>-7290.413053613052</v>
       </c>
       <c r="G5">
-        <v>6823.786667785549</v>
+        <v>7290.413053613052</v>
       </c>
       <c r="H5">
-        <v>26872668.15261928</v>
+        <v>28732809.71306001</v>
       </c>
       <c r="I5">
-        <v>4715.6886406216</v>
+        <v>4766.62564102564</v>
       </c>
       <c r="J5">
-        <v>29.66863768602412</v>
+        <v>31.69744805918718</v>
       </c>
       <c r="K5">
-        <v>37.58401604058074</v>
+        <v>37.45563133262129</v>
       </c>
       <c r="L5">
-        <v>0.1059214516393222</v>
+        <v>-0.05894089557423965</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2043,34 +2043,34 @@
         <v>34000</v>
       </c>
       <c r="C6">
-        <v>19084.82580344666</v>
+        <v>19593.87845594406</v>
       </c>
       <c r="D6">
-        <v>1604.274819371872</v>
+        <v>1874.706066946388</v>
       </c>
       <c r="E6">
-        <v>18132.79340792198</v>
+        <v>17993.19828438229</v>
       </c>
       <c r="F6">
-        <v>-15867.20659207802</v>
+        <v>-16006.80171561771</v>
       </c>
       <c r="G6">
-        <v>15867.20659207802</v>
+        <v>16006.80171561771</v>
       </c>
       <c r="H6">
-        <v>83096562.37338552</v>
+        <v>85604032.57557054</v>
       </c>
       <c r="I6">
-        <v>7503.568128485706</v>
+        <v>7576.669659673658</v>
       </c>
       <c r="J6">
-        <v>46.66825468258241</v>
+        <v>47.07882857534621</v>
       </c>
       <c r="K6">
-        <v>39.85507570108116</v>
+        <v>39.86143064330252</v>
       </c>
       <c r="L6">
-        <v>-2.048054171380687</v>
+        <v>-2.149724302546463</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2081,34 +2081,34 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>20047.75458544942</v>
+        <v>20321.72607060141</v>
       </c>
       <c r="D7">
-        <v>1565.794057129725</v>
+        <v>1645.33437648858</v>
       </c>
       <c r="E7">
-        <v>20689.10062281853</v>
+        <v>21468.58452289045</v>
       </c>
       <c r="F7">
-        <v>10689.10062281853</v>
+        <v>11468.58452289045</v>
       </c>
       <c r="G7">
-        <v>10689.10062281853</v>
+        <v>11468.58452289045</v>
       </c>
       <c r="H7">
-        <v>89328624.32365631</v>
+        <v>94788912.2521929</v>
       </c>
       <c r="I7">
-        <v>8140.67462735227</v>
+        <v>8355.052632317016</v>
       </c>
       <c r="J7">
-        <v>106.8910062281853</v>
+        <v>114.6858452289045</v>
       </c>
       <c r="K7">
-        <v>53.26226180650199</v>
+        <v>54.82631356042291</v>
       </c>
       <c r="L7">
-        <v>-0.5747205971414063</v>
+        <v>-0.5767966509553871</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2119,34 +2119,34 @@
         <v>18000</v>
       </c>
       <c r="C8">
-        <v>21396.73572402439</v>
+        <v>21570.35440238099</v>
       </c>
       <c r="D8">
-        <v>1552.78528201644</v>
+        <v>1565.99316754678</v>
       </c>
       <c r="E8">
-        <v>21613.54864257914</v>
+        <v>21967.06044708999</v>
       </c>
       <c r="F8">
-        <v>3613.548642579142</v>
+        <v>3967.060447089985</v>
       </c>
       <c r="G8">
-        <v>3613.548642579142</v>
+        <v>3967.060447089985</v>
       </c>
       <c r="H8">
-        <v>76616809.23509452</v>
+        <v>81613688.30863838</v>
       </c>
       <c r="I8">
-        <v>7386.153629890083</v>
+        <v>7623.720601445845</v>
       </c>
       <c r="J8">
-        <v>20.07527023655079</v>
+        <v>22.03922470605547</v>
       </c>
       <c r="K8">
-        <v>47.73109654484346</v>
+        <v>49.36179875136167</v>
       </c>
       <c r="L8">
-        <v>-0.1441974800086171</v>
+        <v>-0.1117703512934169</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2157,34 +2157,34 @@
         <v>23000</v>
       </c>
       <c r="C9">
-        <v>22952.54974567838</v>
+        <v>23122.71281293499</v>
       </c>
       <c r="D9">
-        <v>1552.967006394693</v>
+        <v>1563.266216148226</v>
       </c>
       <c r="E9">
-        <v>22949.52100604083</v>
+        <v>23136.34756992777</v>
       </c>
       <c r="F9">
-        <v>-50.47899395916829</v>
+        <v>136.3475699277697</v>
       </c>
       <c r="G9">
-        <v>50.47899395916829</v>
+        <v>136.3475699277697</v>
       </c>
       <c r="H9">
-        <v>65671914.79134261</v>
+        <v>69957245.78737935</v>
       </c>
       <c r="I9">
-        <v>6338.200110471381</v>
+        <v>6554.095882657549</v>
       </c>
       <c r="J9">
-        <v>0.2194738867789926</v>
+        <v>0.5928155214250855</v>
       </c>
       <c r="K9">
-        <v>40.94372187940568</v>
+        <v>42.39480114708501</v>
       </c>
       <c r="L9">
-        <v>-0.1760032367079766</v>
+        <v>-0.1092077950450225</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2195,34 +2195,34 @@
         <v>38000</v>
       </c>
       <c r="C10">
-        <v>25315.18574694869</v>
+        <v>26017.3811261749</v>
       </c>
       <c r="D10">
-        <v>1601.54714608723</v>
+        <v>1829.546635566562</v>
       </c>
       <c r="E10">
-        <v>24505.51675207308</v>
+        <v>24685.97902908322</v>
       </c>
       <c r="F10">
-        <v>-13494.48324792692</v>
+        <v>-13314.02097091678</v>
       </c>
       <c r="G10">
-        <v>13494.48324792692</v>
+        <v>13314.02097091678</v>
       </c>
       <c r="H10">
-        <v>80225560.20849733</v>
+        <v>83370484.36570841</v>
       </c>
       <c r="I10">
-        <v>7232.735502653323</v>
+        <v>7399.086518689952</v>
       </c>
       <c r="J10">
-        <v>35.51179802086033</v>
+        <v>35.03689729188626</v>
       </c>
       <c r="K10">
-        <v>40.2647313970875</v>
+        <v>41.47506316518518</v>
       </c>
       <c r="L10">
-        <v>-2.019986349136238</v>
+        <v>-1.896150193045657</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2233,34 +2233,34 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>26021.72891945376</v>
+        <v>26262.23498556732</v>
       </c>
       <c r="D11">
-        <v>1547.8469076723</v>
+        <v>1512.608080331733</v>
       </c>
       <c r="E11">
-        <v>26916.73289303592</v>
+        <v>27846.92776174146</v>
       </c>
       <c r="F11">
-        <v>14916.73289303592</v>
+        <v>15846.92776174146</v>
       </c>
       <c r="G11">
-        <v>14916.73289303592</v>
+        <v>15846.92776174146</v>
       </c>
       <c r="H11">
-        <v>96034822.43001759</v>
+        <v>102009888.2679466</v>
       </c>
       <c r="I11">
-        <v>8086.512990473611</v>
+        <v>8337.735545695676</v>
       </c>
       <c r="J11">
-        <v>124.306107441966</v>
+        <v>132.0577313478455</v>
       </c>
       <c r="K11">
-        <v>49.60266206874067</v>
+        <v>51.53980407436966</v>
       </c>
       <c r="L11">
-        <v>0.03792807989358249</v>
+        <v>0.2179426801206341</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2271,34 +2271,34 @@
         <v>13000</v>
       </c>
       <c r="C12">
-        <v>26695.4012774985</v>
+        <v>26297.35875930915</v>
       </c>
       <c r="D12">
-        <v>1495.396434694646</v>
+        <v>1217.111219013753</v>
       </c>
       <c r="E12">
-        <v>27569.57582712606</v>
+        <v>27774.84306589905</v>
       </c>
       <c r="F12">
-        <v>14569.57582712606</v>
+        <v>14774.84306589905</v>
       </c>
       <c r="G12">
-        <v>14569.57582712606</v>
+        <v>14774.84306589905</v>
       </c>
       <c r="H12">
-        <v>107658594.1652534</v>
+        <v>113638498.2033465</v>
       </c>
       <c r="I12">
-        <v>8734.819274138858</v>
+        <v>8981.446297716013</v>
       </c>
       <c r="J12">
-        <v>112.073660208662</v>
+        <v>113.6526389684542</v>
       </c>
       <c r="K12">
-        <v>55.84976188273281</v>
+        <v>57.75108756377811</v>
       </c>
       <c r="L12">
-        <v>1.703101263003046</v>
+        <v>1.847362991090243</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2309,34 +2309,34 @@
         <v>32000</v>
       </c>
       <c r="C13">
-        <v>28419.34984946155</v>
+        <v>27963.02298049061</v>
       </c>
       <c r="D13">
-        <v>1509.109562930751</v>
+        <v>1306.821819447295</v>
       </c>
       <c r="E13">
-        <v>28190.79771219314</v>
+        <v>27514.4699783229</v>
       </c>
       <c r="F13">
-        <v>-3809.202287806856</v>
+        <v>-4485.530021677099</v>
       </c>
       <c r="G13">
-        <v>3809.202287806856</v>
+        <v>4485.530021677099</v>
       </c>
       <c r="H13">
-        <v>99190542.15654249</v>
+        <v>105136814.6917119</v>
       </c>
       <c r="I13">
-        <v>8287.035911745039</v>
+        <v>8572.72663625793</v>
       </c>
       <c r="J13">
-        <v>11.90375714939643</v>
+        <v>14.01728131774093</v>
       </c>
       <c r="K13">
-        <v>51.85467054333859</v>
+        <v>53.77528699595656</v>
       </c>
       <c r="L13">
-        <v>1.335468986492172</v>
+        <v>1.412206639598685</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2347,54 +2347,54 @@
         <v>41000</v>
       </c>
       <c r="C14">
-        <v>30592.75184764876</v>
+        <v>30442.86031994412</v>
       </c>
       <c r="D14">
-        <v>1548.967109046138</v>
+        <v>1541.424923448537</v>
       </c>
       <c r="E14">
-        <v>29928.4594123923</v>
+        <v>29269.84479993791</v>
       </c>
       <c r="F14">
-        <v>-11071.5405876077</v>
+        <v>-11730.15520006209</v>
       </c>
       <c r="G14">
-        <v>11071.5405876077</v>
+        <v>11730.15520006209</v>
       </c>
       <c r="H14">
-        <v>101139581.2254177</v>
+        <v>107841791.8855313</v>
       </c>
       <c r="I14">
-        <v>8519.077968066927</v>
+        <v>8835.84568324161</v>
       </c>
       <c r="J14">
-        <v>27.00375753075048</v>
+        <v>28.61013463429779</v>
       </c>
       <c r="K14">
-        <v>49.78376112562291</v>
+        <v>51.67819096581832</v>
       </c>
       <c r="L14">
-        <v>-0.0005236643615702888</v>
+        <v>0.04258859747172447</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="E15">
-        <v>31477.42652143844</v>
+        <v>31984.28524339265</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="E16">
-        <v>34575.36073953072</v>
+        <v>33525.71016684119</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17">
-        <v>39222.26206666914</v>
+        <v>35067.13509028972</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18">
-        <v>45418.13050285369</v>
+        <v>36608.56001373826</v>
       </c>
     </row>
   </sheetData>
@@ -2470,13 +2470,13 @@
         <v>8000</v>
       </c>
       <c r="C3">
-        <v>18842.66738955316</v>
+        <v>18762.58056989019</v>
       </c>
       <c r="D3">
-        <v>516.6017100398561</v>
+        <v>503.7878188937805</v>
       </c>
       <c r="E3">
-        <v>0.4688539319760416</v>
+        <v>0.4671506628217365</v>
       </c>
       <c r="F3">
         <v>8944.385122803003</v>
@@ -2511,34 +2511,34 @@
         <v>13000</v>
       </c>
       <c r="C4">
-        <v>19339.05760825296</v>
+        <v>19241.97264096478</v>
       </c>
       <c r="D4">
-        <v>515.3890205594531</v>
+        <v>501.3482441118624</v>
       </c>
       <c r="E4">
-        <v>0.6827330555510881</v>
+        <v>0.6826246331158714</v>
       </c>
       <c r="F4">
-        <v>13230.21038067119</v>
+        <v>13166.72162279533</v>
       </c>
       <c r="G4">
-        <v>230.2103806711912</v>
+        <v>166.721622795334</v>
       </c>
       <c r="H4">
-        <v>230.2103806711912</v>
+        <v>166.721622795334</v>
       </c>
       <c r="I4">
-        <v>472430.0397702093</v>
+        <v>459829.6798395768</v>
       </c>
       <c r="J4">
-        <v>587.2977517370973</v>
+        <v>555.5533727991688</v>
       </c>
       <c r="K4">
-        <v>1.770849082086086</v>
+        <v>1.28247402150257</v>
       </c>
       <c r="L4">
-        <v>6.787831558561814</v>
+        <v>6.543644028270056</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -2552,34 +2552,34 @@
         <v>23000</v>
       </c>
       <c r="C5">
-        <v>19841.95357488869</v>
+        <v>19733.61170291069</v>
       </c>
       <c r="D5">
-        <v>514.6394373240297</v>
+        <v>500.3773258952663</v>
       </c>
       <c r="E5">
-        <v>1.170015241279661</v>
+        <v>1.170189722850815</v>
       </c>
       <c r="F5">
-        <v>23243.76199568044</v>
+        <v>23113.66618453661</v>
       </c>
       <c r="G5">
-        <v>243.761995680441</v>
+        <v>113.6661845366107</v>
       </c>
       <c r="H5">
-        <v>243.761995680441</v>
+        <v>113.6661845366107</v>
       </c>
       <c r="I5">
-        <v>334759.9966928433</v>
+        <v>310859.7870620881</v>
       </c>
       <c r="J5">
-        <v>472.7858330515452</v>
+        <v>408.2576433783161</v>
       </c>
       <c r="K5">
-        <v>1.059834763828004</v>
+        <v>0.4942008023330899</v>
       </c>
       <c r="L5">
-        <v>4.878499293650544</v>
+        <v>4.527162952957734</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -2593,37 +2593,37 @@
         <v>34000</v>
       </c>
       <c r="C6">
-        <v>20360.84974875951</v>
+        <v>20253.34398805794</v>
       </c>
       <c r="D6">
-        <v>514.8948415168367</v>
+        <v>502.3128218204653</v>
       </c>
       <c r="E6">
-        <v>1.664746905671004</v>
+        <v>1.665851343904028</v>
       </c>
       <c r="F6">
-        <v>33881.91672258901</v>
+        <v>33677.85222352703</v>
       </c>
       <c r="G6">
-        <v>-118.0832774109949</v>
+        <v>-322.1477764729716</v>
       </c>
       <c r="H6">
-        <v>118.0832774109949</v>
+        <v>322.1477764729716</v>
       </c>
       <c r="I6">
-        <v>254555.912620663</v>
+        <v>259089.637768186</v>
       </c>
       <c r="J6">
-        <v>384.1101941414076</v>
+        <v>386.7301766519799</v>
       </c>
       <c r="K6">
-        <v>0.3473037570911615</v>
+        <v>0.9474934602146224</v>
       </c>
       <c r="L6">
-        <v>3.745700409510698</v>
+        <v>3.632245579771956</v>
       </c>
       <c r="M6">
-        <v>3.385159367223025</v>
+        <v>2.333992039297861</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2634,37 +2634,37 @@
         <v>10000</v>
       </c>
       <c r="C7">
-        <v>20902.91617418861</v>
+        <v>20820.72814299579</v>
       </c>
       <c r="D7">
-        <v>516.5251365515725</v>
+        <v>508.819955132204</v>
       </c>
       <c r="E7">
-        <v>0.4694268249455283</v>
+        <v>0.4684646564807928</v>
       </c>
       <c r="F7">
-        <v>9787.674934078643</v>
+        <v>9696.018836035186</v>
       </c>
       <c r="G7">
-        <v>-212.3250659213572</v>
+        <v>-303.9811639648142</v>
       </c>
       <c r="H7">
-        <v>212.3250659213572</v>
+        <v>303.9811639648142</v>
       </c>
       <c r="I7">
-        <v>212661.1168202322</v>
+        <v>225752.6198236294</v>
       </c>
       <c r="J7">
-        <v>349.7531684973976</v>
+        <v>370.1803741145468</v>
       </c>
       <c r="K7">
-        <v>2.123250659213572</v>
+        <v>3.039811639648142</v>
       </c>
       <c r="L7">
-        <v>3.421210459451273</v>
+        <v>3.513758791747193</v>
       </c>
       <c r="M7">
-        <v>3.110619870854376</v>
+        <v>1.61716836320426</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2675,37 +2675,37 @@
         <v>18000</v>
       </c>
       <c r="C8">
-        <v>21716.15224555753</v>
+        <v>21833.47439789927</v>
       </c>
       <c r="D8">
-        <v>534.3277926406133</v>
+        <v>559.2125851093311</v>
       </c>
       <c r="E8">
-        <v>0.6915016393776096</v>
+        <v>0.6968043852390018</v>
       </c>
       <c r="F8">
-        <v>14623.76061427884</v>
+        <v>14560.07494501196</v>
       </c>
       <c r="G8">
-        <v>-3376.239385721155</v>
+        <v>-3439.925054988043</v>
       </c>
       <c r="H8">
-        <v>3376.239385721155</v>
+        <v>3439.925054988043</v>
       </c>
       <c r="I8">
-        <v>2077049.662299321</v>
+        <v>2160307.913842107</v>
       </c>
       <c r="J8">
-        <v>854.1675380346906</v>
+        <v>881.8044875934629</v>
       </c>
       <c r="K8">
-        <v>18.75688547622864</v>
+        <v>19.11069474993358</v>
       </c>
       <c r="L8">
-        <v>5.977156295580834</v>
+        <v>6.113248118111589</v>
       </c>
       <c r="M8">
-        <v>-2.678971194765701</v>
+        <v>-3.22212134919503</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2716,37 +2716,37 @@
         <v>23000</v>
       </c>
       <c r="C9">
-        <v>22094.92305072695</v>
+        <v>22118.91153344073</v>
       </c>
       <c r="D9">
-        <v>524.9943733923417</v>
+        <v>531.8350401525436</v>
       </c>
       <c r="E9">
-        <v>1.162272113907716</v>
+        <v>1.15715416749485</v>
       </c>
       <c r="F9">
-        <v>26033.40077048068</v>
+        <v>26203.69217453188</v>
       </c>
       <c r="G9">
-        <v>3033.400770480683</v>
+        <v>3203.692174531883</v>
       </c>
       <c r="H9">
-        <v>3033.400770480683</v>
+        <v>3203.692174531883</v>
       </c>
       <c r="I9">
-        <v>3094831.172592675</v>
+        <v>3317927.290315638</v>
       </c>
       <c r="J9">
-        <v>1165.486571241261</v>
+        <v>1213.502728584666</v>
       </c>
       <c r="K9">
-        <v>13.18869900208992</v>
+        <v>13.92909641100819</v>
       </c>
       <c r="L9">
-        <v>7.007376682224989</v>
+        <v>7.229797874239675</v>
       </c>
       <c r="M9">
-        <v>0.6393128492147762</v>
+        <v>0.2986487798537462</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2757,37 +2757,37 @@
         <v>38000</v>
       </c>
       <c r="C10">
-        <v>22632.29993561674</v>
+        <v>22666.78782366807</v>
       </c>
       <c r="D10">
-        <v>525.7373240821889</v>
+        <v>533.4391651600237</v>
       </c>
       <c r="E10">
-        <v>1.665603068009474</v>
+        <v>1.666912372241285</v>
       </c>
       <c r="F10">
-        <v>37656.43753833622</v>
+        <v>37732.7766200499</v>
       </c>
       <c r="G10">
-        <v>-343.5624616637797</v>
+        <v>-267.2233799500973</v>
       </c>
       <c r="H10">
-        <v>343.5624616637797</v>
+        <v>267.2233799500973</v>
       </c>
       <c r="I10">
-        <v>2722731.67165165</v>
+        <v>2912112.420875177</v>
       </c>
       <c r="J10">
-        <v>1062.746057544076</v>
+        <v>1095.217810005345</v>
       </c>
       <c r="K10">
-        <v>0.9041117412204728</v>
+        <v>0.7032194209213086</v>
       </c>
       <c r="L10">
-        <v>6.244468564599425</v>
+        <v>6.413975567574879</v>
       </c>
       <c r="M10">
-        <v>0.3778401021274807</v>
+        <v>0.0869121451653898</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2798,37 +2798,37 @@
         <v>12000</v>
       </c>
       <c r="C11">
-        <v>23302.34040181361</v>
+        <v>23441.76359521851</v>
       </c>
       <c r="D11">
-        <v>534.3955126090697</v>
+        <v>557.5928257990655</v>
       </c>
       <c r="E11">
-        <v>0.4721593993901814</v>
+        <v>0.4728088785608659</v>
       </c>
       <c r="F11">
-        <v>10871.00390279071</v>
+        <v>10868.48636659777</v>
       </c>
       <c r="G11">
-        <v>-1128.996097209287</v>
+        <v>-1131.513633402228</v>
       </c>
       <c r="H11">
-        <v>1128.996097209287</v>
+        <v>1131.513633402228</v>
       </c>
       <c r="I11">
-        <v>2561831.728969667</v>
+        <v>2730802.496619614</v>
       </c>
       <c r="J11">
-        <v>1070.107173062433</v>
+        <v>1099.250679271665</v>
       </c>
       <c r="K11">
-        <v>9.408300810077391</v>
+        <v>9.4292802783519</v>
       </c>
       <c r="L11">
-        <v>6.596005480763644</v>
+        <v>6.749009424327882</v>
       </c>
       <c r="M11">
-        <v>-0.6797898720830411</v>
+        <v>-0.9427566647472675</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2839,37 +2839,37 @@
         <v>13000</v>
       </c>
       <c r="C12">
-        <v>23534.51173181312</v>
+        <v>23465.08067936852</v>
       </c>
       <c r="D12">
-        <v>516.2620616524963</v>
+        <v>504.1652516341596</v>
       </c>
       <c r="E12">
-        <v>0.6831543573558428</v>
+        <v>0.6825254182788885</v>
       </c>
       <c r="F12">
-        <v>16483.14196223443</v>
+        <v>16722.85679707884</v>
       </c>
       <c r="G12">
-        <v>3483.141962234426</v>
+        <v>3722.856797078843</v>
       </c>
       <c r="H12">
-        <v>3483.141962234426</v>
+        <v>3722.856797078843</v>
       </c>
       <c r="I12">
-        <v>3518876.348980528</v>
+        <v>3843688.520113267</v>
       </c>
       <c r="J12">
-        <v>1311.410651979632</v>
+        <v>1361.611291052383</v>
       </c>
       <c r="K12">
-        <v>26.79339970949558</v>
+        <v>28.63735997752956</v>
       </c>
       <c r="L12">
-        <v>8.615744903636838</v>
+        <v>8.937844479648049</v>
       </c>
       <c r="M12">
-        <v>2.101320390972369</v>
+        <v>1.973052743188632</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2880,37 +2880,37 @@
         <v>32000</v>
       </c>
       <c r="C13">
-        <v>24259.66409997126</v>
+        <v>24337.72640655265</v>
       </c>
       <c r="D13">
-        <v>528.7954800428346</v>
+        <v>541.0132991891566</v>
       </c>
       <c r="E13">
-        <v>1.17167950448368</v>
+        <v>1.172921862460288</v>
       </c>
       <c r="F13">
-        <v>27953.54369804759</v>
+        <v>27736.11282076871</v>
       </c>
       <c r="G13">
-        <v>-4046.456301952414</v>
+        <v>-4263.887179231286</v>
       </c>
       <c r="H13">
-        <v>4046.456301952414</v>
+        <v>4263.887179231286</v>
       </c>
       <c r="I13">
-        <v>4687506.553946881</v>
+        <v>5147056.2798496</v>
       </c>
       <c r="J13">
-        <v>1560.051165613521</v>
+        <v>1625.454553614101</v>
       </c>
       <c r="K13">
-        <v>12.64517594360129</v>
+        <v>13.32464743509777</v>
       </c>
       <c r="L13">
-        <v>8.982056816360879</v>
+        <v>9.336644748325297</v>
       </c>
       <c r="M13">
-        <v>-0.8273846310044749</v>
+        <v>-0.9704093435012432</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2921,37 +2921,37 @@
         <v>41000</v>
       </c>
       <c r="C14">
-        <v>24778.0945296647</v>
+        <v>24850.50312719637</v>
       </c>
       <c r="D14">
-        <v>528.1735770218709</v>
+        <v>538.1896413346129</v>
       </c>
       <c r="E14">
-        <v>1.664948125957217</v>
+        <v>1.665207734242706</v>
       </c>
       <c r="F14">
-        <v>41287.73432770032</v>
+        <v>41470.67902127152</v>
       </c>
       <c r="G14">
-        <v>287.7343277003238</v>
+        <v>470.6790212715205</v>
       </c>
       <c r="H14">
-        <v>287.7343277003238</v>
+        <v>470.6790212715205</v>
       </c>
       <c r="I14">
-        <v>4303780.26139607</v>
+        <v>4736596.484950893</v>
       </c>
       <c r="J14">
-        <v>1454.024762454088</v>
+        <v>1529.22325925222</v>
       </c>
       <c r="K14">
-        <v>0.7017910431715214</v>
+        <v>1.147997612857367</v>
       </c>
       <c r="L14">
-        <v>8.292034668595099</v>
+        <v>8.654257487036302</v>
       </c>
       <c r="M14">
-        <v>-0.6898287128315613</v>
+        <v>-0.7236858701282139</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2959,10 +2959,10 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.4721593993901814</v>
+        <v>0.4728088785608659</v>
       </c>
       <c r="F15">
-        <v>11454.42843084998</v>
+        <v>11507.09312900333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2970,10 +2970,10 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.6831543573558428</v>
+        <v>0.6825254182788885</v>
       </c>
       <c r="F16">
-        <v>16934.34417422581</v>
+        <v>16980.37222391301</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2981,10 +2981,10 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>1.17167950448368</v>
+        <v>1.172921862460288</v>
       </c>
       <c r="F17">
-        <v>29663.70886365444</v>
+        <v>29815.38403782412</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2992,10 +2992,10 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>1.664948125957217</v>
+        <v>1.665207734242706</v>
       </c>
       <c r="F18">
-        <v>43032.3334101346</v>
+        <v>43230.06883648824</v>
       </c>
     </row>
   </sheetData>

--- a/graphs+excel_directory/generated_spreadsheet.xlsx
+++ b/graphs+excel_directory/generated_spreadsheet.xlsx
@@ -12,13 +12,14 @@
     <sheet name="simple_exponential_smoothing" sheetId="3" r:id="rId3"/>
     <sheet name="holt_trend_exp_smoothing" sheetId="4" r:id="rId4"/>
     <sheet name="winter_trendseason" sheetId="5" r:id="rId5"/>
+    <sheet name="Find_EOQ_cycle_inventory" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>Year</t>
   </si>
@@ -75,6 +76,33 @@
   </si>
   <si>
     <t>Seasonal Factor</t>
+  </si>
+  <si>
+    <t>Annual demand (Forecasted,cumulative)</t>
+  </si>
+  <si>
+    <t>Shipment cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Cost </t>
+  </si>
+  <si>
+    <t>OPTIMAL LOT SIZE</t>
+  </si>
+  <si>
+    <t>Cycle Inventory</t>
+  </si>
+  <si>
+    <t>Number of Orders Per Year:</t>
+  </si>
+  <si>
+    <t>Replenishment time:</t>
+  </si>
+  <si>
+    <t>Average Flow time:</t>
   </si>
 </sst>
 </file>
@@ -3001,4 +3029,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>101532.9182272287</v>
+      </c>
+      <c r="B2">
+        <v>7500</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3902.555282642939</v>
+      </c>
+      <c r="B4">
+        <v>1951.277641321469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>26.01703521761959</v>
+      </c>
+      <c r="B6">
+        <v>14.02926955154406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7.014634775772031</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>